--- a/data_tanah1.xlsx
+++ b/data_tanah1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Magang_Ombudsman\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{535235EA-01EA-4BE9-8F3F-C8A5561616F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Data Tanah" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,41 +27,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nomor Arsip</t>
+  </si>
+  <si>
+    <t>Nama Pelapor</t>
+  </si>
+  <si>
+    <t>Lokasi LM</t>
+  </si>
+  <si>
+    <t>Asisten</t>
+  </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Maladministrasi</t>
-  </si>
-  <si>
-    <t>Penundaan Berlarut</t>
-  </si>
-  <si>
-    <t>Tidak Memberikan Pelayanan</t>
-  </si>
-  <si>
-    <t>Penyalahgunaan Wewenang</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nomor Arsip</t>
-  </si>
-  <si>
-    <t>Nama Pelapor</t>
-  </si>
-  <si>
-    <t>Lokasi LM</t>
-  </si>
-  <si>
-    <t>Asisten</t>
-  </si>
-  <si>
     <t>0407/LM/IV/2023/JKT</t>
   </si>
   <si>
@@ -102,9 +86,6 @@
     <t>Kab. Sidoarjo, Jawa Timur</t>
   </si>
   <si>
-    <t>Penyimpangan Prosedur</t>
-  </si>
-  <si>
     <t>1318/LM/XII/2023/JKT</t>
   </si>
   <si>
@@ -124,9 +105,6 @@
   </si>
   <si>
     <t>Bandar Lampung</t>
-  </si>
-  <si>
-    <t>Tidak Kompeten</t>
   </si>
   <si>
     <t>0785/LM/VIII/2024/JKT</t>
@@ -384,8 +362,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,18 +381,348 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -431,30 +745,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -739,53 +1336,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="15.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="9.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="88" thickBot="1">
+    </row>
+    <row r="2" ht="75.75" spans="1:7">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
@@ -793,25 +1386,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="25.75" spans="1:7">
       <c r="A3" s="1">
         <v>2024</v>
       </c>
@@ -819,25 +1409,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25" spans="1:7">
       <c r="A4" s="1">
         <v>2024</v>
       </c>
@@ -845,25 +1432,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="50.75" spans="1:7">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -871,25 +1455,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="25.75" spans="1:7">
       <c r="A6" s="1">
         <v>2024</v>
       </c>
@@ -897,25 +1478,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25" spans="1:7">
       <c r="A7" s="1">
         <v>2024</v>
       </c>
@@ -923,25 +1501,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="50.75" spans="1:7">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -949,25 +1524,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="50.75" spans="1:7">
       <c r="A9" s="1">
         <v>2024</v>
       </c>
@@ -975,25 +1547,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="25.75" spans="1:7">
       <c r="A10" s="1">
         <v>2024</v>
       </c>
@@ -1001,25 +1570,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" spans="1:7">
       <c r="A11" s="1">
         <v>2025</v>
       </c>
@@ -1027,25 +1593,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="38.25" spans="1:7">
       <c r="A12" s="1">
         <v>2025</v>
       </c>
@@ -1053,25 +1616,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="25.75" spans="1:7">
       <c r="A13" s="1">
         <v>2025</v>
       </c>
@@ -1079,25 +1639,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25" spans="1:7">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
@@ -1105,25 +1662,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" spans="1:7">
       <c r="A15" s="1">
         <v>2025</v>
       </c>
@@ -1131,25 +1685,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25" spans="1:7">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
@@ -1157,25 +1708,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="63" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="63.25" spans="1:7">
       <c r="A17" s="1">
         <v>2025</v>
       </c>
@@ -1183,25 +1731,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="25.75" spans="1:7">
       <c r="A18" s="1">
         <v>2025</v>
       </c>
@@ -1209,25 +1754,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="38" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25" spans="1:7">
       <c r="A19" s="1">
         <v>2025</v>
       </c>
@@ -1235,25 +1777,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="25.75" spans="1:7">
       <c r="A20" s="1">
         <v>2025</v>
       </c>
@@ -1261,25 +1800,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="63" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="63.25" spans="1:7">
       <c r="A21" s="1">
         <v>2025</v>
       </c>
@@ -1287,25 +1823,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="50.75" spans="1:7">
       <c r="A22" s="1">
         <v>2025</v>
       </c>
@@ -1313,25 +1846,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="63" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="63.25" spans="1:7">
       <c r="A23" s="1">
         <v>2025</v>
       </c>
@@ -1339,25 +1869,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="50.75" spans="1:7">
       <c r="A24" s="1">
         <v>2025</v>
       </c>
@@ -1365,25 +1892,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="63" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="50.75" spans="1:7">
       <c r="A25" s="1">
         <v>2025</v>
       </c>
@@ -1391,25 +1915,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="50.75" spans="1:7">
       <c r="A26" s="1">
         <v>2025</v>
       </c>
@@ -1417,25 +1938,22 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="25.75" spans="1:7">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
@@ -1443,25 +1961,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="25.75" spans="1:7">
       <c r="A28" s="1">
         <v>2025</v>
       </c>
@@ -1469,25 +1984,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="25.75" spans="1:7">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
@@ -1495,25 +2007,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="25.75" spans="1:7">
       <c r="A30" s="1">
         <v>2025</v>
       </c>
@@ -1521,25 +2030,22 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="25.75" spans="1:7">
       <c r="A31" s="1">
         <v>2025</v>
       </c>
@@ -1547,25 +2053,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="25.75" spans="1:7">
       <c r="A32" s="1">
         <v>2025</v>
       </c>
@@ -1573,25 +2076,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="25.75" spans="1:7">
       <c r="A33" s="1">
         <v>2025</v>
       </c>
@@ -1599,25 +2099,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="25.75" spans="1:7">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
@@ -1625,25 +2122,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="25.5" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" ht="25.75" spans="1:7">
       <c r="A35" s="1">
         <v>2026</v>
       </c>
@@ -1651,25 +2145,23 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>